--- a/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:48:56+00:00</t>
+    <t>2025-08-18T15:07:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T15:07:20+00:00</t>
+    <t>2025-08-19T07:26:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:26:51+00:00</t>
+    <t>2025-08-19T09:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T09:13:33+00:00</t>
+    <t>2025-08-22T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:24:36+00:00</t>
+    <t>2025-09-15T15:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:00:04+00:00</t>
+    <t>2025-09-16T07:41:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T07:41:43+00:00</t>
+    <t>2025-09-17T14:09:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T14:09:24+00:00</t>
+    <t>2025-09-17T14:48:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T14:48:50+00:00</t>
+    <t>2025-09-17T15:16:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/345-flux---correction-du-flux-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:16:40+00:00</t>
+    <t>2025-09-17T15:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
